--- a/Running projects/Gul Ahmed Energy Limited/VO/03- variation order for additional cassette type units with y joints.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/VO/03- variation order for additional cassette type units with y joints.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF34376-1938-43CD-9106-136DF52E4A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01B4813-5379-40CC-B060-2FB0358C2C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>Over Head profit 28%</t>
   </si>
   <si>
-    <t>Telephonoc conversation held Mr Muazz from Ik and nadeem iqbal 28% OVERhead profit will be shared half and half</t>
-  </si>
-  <si>
     <t>Variation # 3</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Supply &amp; installation of Cassette type unit for Executive Director Room - Gul Ahmed</t>
+  </si>
+  <si>
+    <t>Telephonoc conversation held Mr Muazz from Ik and nadeem iqbal 28% OVERhead profit will be shared half and half after tax deuction of 10%</t>
   </si>
 </sst>
 </file>
@@ -823,7 +823,7 @@
   <dimension ref="A7:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +897,7 @@
     </row>
     <row r="22" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -910,7 +910,7 @@
     </row>
     <row r="23" spans="1:19" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>2</v>
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="18">
         <v>265000</v>
@@ -973,7 +973,7 @@
         <v>349440</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H26" s="17">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>349440</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="40"/>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="18">
         <v>20000</v>
@@ -1015,7 +1015,7 @@
         <v>28160</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H27" s="17">
         <v>1</v>

--- a/Running projects/Gul Ahmed Energy Limited/VO/03- variation order for additional cassette type units with y joints.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/VO/03- variation order for additional cassette type units with y joints.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01B4813-5379-40CC-B060-2FB0358C2C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B5F16-AC40-4A3F-9FD2-922EBEAAE025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>Note: GREE Quotation attached</t>
   </si>
   <si>
-    <t>Over Head profit 28%</t>
-  </si>
-  <si>
     <t>Variation # 3</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Telephonoc conversation held Mr Muazz from Ik and nadeem iqbal 28% OVERhead profit will be shared half and half after tax deuction of 10%</t>
+  </si>
+  <si>
+    <t>Over Head profit 10%</t>
   </si>
 </sst>
 </file>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +897,7 @@
     </row>
     <row r="22" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -910,7 +910,7 @@
     </row>
     <row r="23" spans="1:19" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="E25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>2</v>
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="18">
         <v>265000</v>
@@ -965,25 +965,25 @@
         <v>8000</v>
       </c>
       <c r="E26" s="19">
-        <f>SUM(C26+D26)*28%</f>
-        <v>76440</v>
+        <f>SUM(C26+D26)*10%</f>
+        <v>27300</v>
       </c>
       <c r="F26" s="19">
         <f>E26+D26+C26</f>
-        <v>349440</v>
+        <v>300300</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" s="17">
         <v>1</v>
       </c>
       <c r="I26" s="18">
         <f>H26*F26</f>
-        <v>349440</v>
+        <v>300300</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="40"/>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="18">
         <v>20000</v>
@@ -1007,22 +1007,22 @@
         <v>2000</v>
       </c>
       <c r="E27" s="19">
-        <f>SUM(C27+D27)*28%</f>
-        <v>6160.0000000000009</v>
+        <f>SUM(C27+D27)*10%</f>
+        <v>2200</v>
       </c>
       <c r="F27" s="19">
         <f>E27+D27+C27</f>
-        <v>28160</v>
+        <v>24200</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27" s="17">
         <v>1</v>
       </c>
       <c r="I27" s="18">
         <f>H27*F27</f>
-        <v>28160</v>
+        <v>24200</v>
       </c>
       <c r="L27" s="40"/>
       <c r="M27" s="40"/>
@@ -1046,7 +1046,7 @@
       <c r="H28" s="39"/>
       <c r="I28" s="31">
         <f>SUM(I26:I27)</f>
-        <v>377600</v>
+        <v>324500</v>
       </c>
       <c r="K28" s="25"/>
       <c r="L28" s="30"/>

--- a/Running projects/Gul Ahmed Energy Limited/VO/03- variation order for additional cassette type units with y joints.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/VO/03- variation order for additional cassette type units with y joints.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B5F16-AC40-4A3F-9FD2-922EBEAAE025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B93162-D050-49C8-9682-EA3B54F1F15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
     <t>Telephonoc conversation held Mr Muazz from Ik and nadeem iqbal 28% OVERhead profit will be shared half and half after tax deuction of 10%</t>
   </si>
   <si>
-    <t>Over Head profit 10%</t>
+    <t>Over Head profit 28%</t>
   </si>
 </sst>
 </file>
@@ -823,7 +823,7 @@
   <dimension ref="A7:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,12 +965,12 @@
         <v>8000</v>
       </c>
       <c r="E26" s="19">
-        <f>SUM(C26+D26)*10%</f>
-        <v>27300</v>
+        <f>SUM(C26+D26)*28%</f>
+        <v>76440</v>
       </c>
       <c r="F26" s="19">
         <f>E26+D26+C26</f>
-        <v>300300</v>
+        <v>349440</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>19</v>
@@ -980,7 +980,7 @@
       </c>
       <c r="I26" s="18">
         <f>H26*F26</f>
-        <v>300300</v>
+        <v>349440</v>
       </c>
       <c r="L26" s="40" t="s">
         <v>21</v>
@@ -1007,12 +1007,12 @@
         <v>2000</v>
       </c>
       <c r="E27" s="19">
-        <f>SUM(C27+D27)*10%</f>
-        <v>2200</v>
+        <f>SUM(C27+D27)*28%</f>
+        <v>6160.0000000000009</v>
       </c>
       <c r="F27" s="19">
         <f>E27+D27+C27</f>
-        <v>24200</v>
+        <v>28160</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>19</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="I27" s="18">
         <f>H27*F27</f>
-        <v>24200</v>
+        <v>28160</v>
       </c>
       <c r="L27" s="40"/>
       <c r="M27" s="40"/>
@@ -1046,7 +1046,7 @@
       <c r="H28" s="39"/>
       <c r="I28" s="31">
         <f>SUM(I26:I27)</f>
-        <v>324500</v>
+        <v>377600</v>
       </c>
       <c r="K28" s="25"/>
       <c r="L28" s="30"/>
